--- a/xlsxs/BuffConfig.xlsx
+++ b/xlsxs/BuffConfig.xlsx
@@ -27,12 +27,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>templateAgent</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>tickInterval</t>
+  </si>
+  <si>
+    <t>buffType</t>
+  </si>
+  <si>
+    <t>canStack</t>
+  </si>
+  <si>
+    <t>canRefresh</t>
+  </si>
+  <si>
+    <t>maxStacks</t>
+  </si>
+  <si>
+    <t>args0</t>
+  </si>
+  <si>
+    <t>args1</t>
+  </si>
+  <si>
+    <t>args2</t>
+  </si>
+  <si>
+    <t>args3</t>
+  </si>
+  <si>
+    <t>args4</t>
+  </si>
+  <si>
+    <t>args5</t>
+  </si>
+  <si>
+    <t>args6</t>
+  </si>
+  <si>
+    <t>args7</t>
+  </si>
+  <si>
+    <t>args8</t>
+  </si>
+  <si>
+    <t>args9</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -45,10 +105,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -517,21 +583,18 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,126 +603,132 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1195,29 +1264,130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="1028" width="9.5" style="1" customWidth="1"/>
-    <col min="1029" max="16384" width="9.5" customWidth="1"/>
+    <col min="1029" max="16383" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="39" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:1">
+    <row r="2" ht="12.65" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/xlsxs/BuffConfig.xlsx
+++ b/xlsxs/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>CastSkillBuff</t>
   </si>
 </sst>
 </file>
@@ -105,16 +108,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -583,18 +580,21 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +603,121 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1267,131 +1255,138 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="1028" width="9.5" style="1" customWidth="1"/>
-    <col min="1029" max="16383" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.4833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" spans="1:18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="12.65" customHeight="1" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>

--- a/xlsxs/BuffConfig.xlsx
+++ b/xlsxs/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>templateAgent</t>
   </si>
   <si>
+    <t>startDelayTime</t>
+  </si>
+  <si>
     <t>duration</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>CastSkillBuff</t>
+  </si>
+  <si>
+    <t>BulletBuff</t>
   </si>
 </sst>
 </file>
@@ -1252,19 +1258,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.4833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.4833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,75 +1325,89 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:18">
+    <row r="2" ht="15" customHeight="1" spans="1:19">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
         <v>0.05</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BuffConfig.xlsx
+++ b/xlsxs/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>args9</t>
+  </si>
+  <si>
+    <t>args10</t>
   </si>
   <si>
     <t>int</t>
@@ -1258,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="S18" sqref="S17:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="4"/>
@@ -1270,7 +1273,7 @@
     <col min="5" max="5" width="13.4833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1328,64 +1331,70 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:19">
+    <row r="2" ht="15" customHeight="1" spans="1:20">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1393,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -1407,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/BuffConfig.xlsx
+++ b/xlsxs/BuffConfig.xlsx
@@ -95,7 +95,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
+    <t>FP</t>
   </si>
   <si>
     <t>bool</t>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S17:S18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="4"/>

--- a/xlsxs/BuffConfig.xlsx
+++ b/xlsxs/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775" tabRatio="500"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>BulletBuff</t>
+  </si>
+  <si>
+    <t>AttrBuff</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
   </si>
 </sst>
 </file>
@@ -725,8 +734,11 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1261,13 +1273,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="13.4833333333333" customWidth="1"/>
@@ -1411,12 +1423,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>360</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
